--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliu369\OneDrive - Emory University\Documents\Research\review_socialcontact_covid19\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/cliu369_emory_edu/Documents/Documents/Research/review_socialcontact_covid19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{69EFB93D-19AC-4A5E-BDAB-62B6BE413802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9EA5C5C7-9DAF-4F05-ADC0-50DEDCEBA147}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1ED1CBD3-08FE-4E37-9B68-487C229D6BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18550" windowHeight="6040" tabRatio="656" activeTab="3" xr2:uid="{F44D50D2-3960-4A35-84DC-76CC839B794D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18550" windowHeight="6040" tabRatio="656" activeTab="10" xr2:uid="{F44D50D2-3960-4A35-84DC-76CC839B794D}"/>
   </bookViews>
   <sheets>
     <sheet name="Inc_studies" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="SI_cont_def" sheetId="7" r:id="rId9"/>
     <sheet name="Summary" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="18" r:id="rId11"/>
-    <sheet name="Non_hhcontacts" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inc_studies!$A$1:$M$12</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="400">
   <si>
     <t>SN</t>
   </si>
@@ -1218,15 +1217,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direct interaction, people who you met in person and with whom you exchanged at least a few words, or with whom you had physical contact (ex. a handshake, embracing, kissing, contact sports). If you only spoke to someone over the phone or internet, they should not be included. </t>
-  </si>
-  <si>
-    <t>Non_HH contact</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Comments</t>
@@ -1906,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3B1F24-08BA-4522-8B90-24DB5725E8A7}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
@@ -2496,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAEFD90-8741-4349-B373-EA16F8CF2A16}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4470,183 +4460,6 @@
       </c>
       <c r="AF37">
         <v>5.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38430074-3A08-4E33-9E75-5169BA4CEE6F}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4793,7 +4606,7 @@
         <v>92</v>
       </c>
       <c r="AL1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.35">
@@ -4894,7 +4707,7 @@
         <v>0.54</v>
       </c>
       <c r="AL2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.35">
@@ -4983,7 +4796,7 @@
         <v>1542</v>
       </c>
       <c r="AL3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.35">
@@ -5082,7 +4895,7 @@
         <v>1083</v>
       </c>
       <c r="AL4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
@@ -6025,7 +5838,7 @@
         <v>5664</v>
       </c>
       <c r="AL14" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
@@ -6123,7 +5936,7 @@
         <v>213</v>
       </c>
       <c r="AL15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -6313,7 +6126,7 @@
         <v>116</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -6405,7 +6218,7 @@
         <v>120</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -6497,7 +6310,7 @@
         <v>123</v>
       </c>
       <c r="AL19" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -6589,7 +6402,7 @@
         <v>126</v>
       </c>
       <c r="AL20" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -6726,7 +6539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E2E801-7B85-4AE6-8316-0F21B8636876}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -6747,10 +6560,10 @@
         <v>73</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>94</v>
@@ -6770,7 +6583,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -6784,7 +6597,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E3" s="78">
         <v>0.77500000000000002</v>
@@ -6926,7 +6739,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E8" s="78">
         <v>0.71799999999999997</v>
@@ -7010,7 +6823,7 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E11" s="78">
         <v>0.48</v>
@@ -7097,7 +6910,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E14" s="78">
         <v>0.73</v>
@@ -7126,7 +6939,7 @@
         <v>0.82</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E15" s="78">
         <v>0.72</v>
@@ -7146,7 +6959,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -7320,8 +7133,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AC164" sqref="AC164"/>
     </sheetView>
   </sheetViews>
@@ -27161,7 +26974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BE68E7-A4EB-4895-8F85-D7F3C8B4C628}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -28180,7 +27993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4CD3D0-F800-49CC-889D-0D81A8026DFD}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -29067,8 +28880,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B43A7275AC0134F9C3CA618E0B2AADE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="081ae4c20819a9cc48aff99e34d88380">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ff8b2a1-89eb-493f-8e25-b6ba500e8664" xmlns:ns4="3952ebee-5faf-48c8-a1d8-d12e6f425ef3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="caa06bffb8b388837154b8caed32cf36" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B43A7275AC0134F9C3CA618E0B2AADE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6793c3ee876ea6206d012468bc10d68d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ff8b2a1-89eb-493f-8e25-b6ba500e8664" xmlns:ns4="3952ebee-5faf-48c8-a1d8-d12e6f425ef3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc95b1c47913d8cdbfbb1f88a5a86cd5" ns3:_="" ns4:_="">
     <xsd:import namespace="6ff8b2a1-89eb-493f-8e25-b6ba500e8664"/>
     <xsd:import namespace="3952ebee-5faf-48c8-a1d8-d12e6f425ef3"/>
     <xsd:element name="properties">
@@ -29089,6 +28917,8 @@
                 <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -29146,6 +28976,16 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -29283,23 +29123,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E563A518-A410-4088-8433-64BBAF4923F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B25818-9DDA-405B-A94E-4E6F99100CC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3952ebee-5faf-48c8-a1d8-d12e6f425ef3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ff8b2a1-89eb-493f-8e25-b6ba500e8664"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D178354-47F5-44FA-9451-8BDC4CC7F7AE}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD4CFBCF-406D-4C4D-8290-F5935FC467C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -29315,29 +29165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B25818-9DDA-405B-A94E-4E6F99100CC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6ff8b2a1-89eb-493f-8e25-b6ba500e8664"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3952ebee-5faf-48c8-a1d8-d12e6f425ef3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E563A518-A410-4088-8433-64BBAF4923F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>